--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5551036666666667</v>
+        <v>0.260875</v>
       </c>
       <c r="H2">
-        <v>1.665311</v>
+        <v>0.7826249999999999</v>
       </c>
       <c r="I2">
-        <v>0.389144998960137</v>
+        <v>0.2304058263197128</v>
       </c>
       <c r="J2">
-        <v>0.389144998960137</v>
+        <v>0.2304058263197127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7328106666666666</v>
+        <v>0.659041</v>
       </c>
       <c r="N2">
-        <v>2.198432</v>
+        <v>1.977123</v>
       </c>
       <c r="O2">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="P2">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="Q2">
-        <v>0.4067858880391111</v>
+        <v>0.171927320875</v>
       </c>
       <c r="R2">
-        <v>3.661072992352</v>
+        <v>1.547345887875</v>
       </c>
       <c r="S2">
-        <v>0.1584837619922495</v>
+        <v>0.08799698085269855</v>
       </c>
       <c r="T2">
-        <v>0.1584837619922495</v>
+        <v>0.08799698085269854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5551036666666667</v>
+        <v>0.260875</v>
       </c>
       <c r="H3">
-        <v>1.665311</v>
+        <v>0.7826249999999999</v>
       </c>
       <c r="I3">
-        <v>0.389144998960137</v>
+        <v>0.2304058263197128</v>
       </c>
       <c r="J3">
-        <v>0.389144998960137</v>
+        <v>0.2304058263197127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.878204</v>
       </c>
       <c r="O3">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="P3">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="Q3">
-        <v>0.3475326423826667</v>
+        <v>0.1633254895</v>
       </c>
       <c r="R3">
-        <v>3.127793781444</v>
+        <v>1.4699294055</v>
       </c>
       <c r="S3">
-        <v>0.1353987003959599</v>
+        <v>0.0835943345080007</v>
       </c>
       <c r="T3">
-        <v>0.1353987003959599</v>
+        <v>0.08359433450800069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5551036666666667</v>
+        <v>0.260875</v>
       </c>
       <c r="H4">
-        <v>1.665311</v>
+        <v>0.7826249999999999</v>
       </c>
       <c r="I4">
-        <v>0.389144998960137</v>
+        <v>0.2304058263197128</v>
       </c>
       <c r="J4">
-        <v>0.389144998960137</v>
+        <v>0.2304058263197127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.321449</v>
       </c>
       <c r="O4">
-        <v>0.2447995909660556</v>
+        <v>0.2552648598278156</v>
       </c>
       <c r="P4">
-        <v>0.2447995909660555</v>
+        <v>0.2552648598278155</v>
       </c>
       <c r="Q4">
-        <v>0.2445137284043333</v>
+        <v>0.114911002625</v>
       </c>
       <c r="R4">
-        <v>2.200623555639</v>
+        <v>1.034199023625</v>
       </c>
       <c r="S4">
-        <v>0.09526253657192767</v>
+        <v>0.05881451095901351</v>
       </c>
       <c r="T4">
-        <v>0.09526253657192764</v>
+        <v>0.05881451095901349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.875893</v>
       </c>
       <c r="I5">
-        <v>0.4383531842006258</v>
+        <v>0.5522653592108161</v>
       </c>
       <c r="J5">
-        <v>0.4383531842006257</v>
+        <v>0.5522653592108161</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7328106666666666</v>
+        <v>0.659041</v>
       </c>
       <c r="N5">
-        <v>2.198432</v>
+        <v>1.977123</v>
       </c>
       <c r="O5">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="P5">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="Q5">
-        <v>0.4582247999751111</v>
+        <v>0.4120967995376666</v>
       </c>
       <c r="R5">
-        <v>4.124023199776</v>
+        <v>3.708871195839</v>
       </c>
       <c r="S5">
-        <v>0.1785243595550181</v>
+        <v>0.2109221151927312</v>
       </c>
       <c r="T5">
-        <v>0.1785243595550181</v>
+        <v>0.2109221151927312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.875893</v>
       </c>
       <c r="I6">
-        <v>0.4383531842006258</v>
+        <v>0.5522653592108161</v>
       </c>
       <c r="J6">
-        <v>0.4383531842006257</v>
+        <v>0.5522653592108161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.878204</v>
       </c>
       <c r="O6">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="P6">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="Q6">
         <v>0.3914788595746667</v>
@@ -818,10 +818,10 @@
         <v>3.523309736172</v>
       </c>
       <c r="S6">
-        <v>0.1525201444546265</v>
+        <v>0.2003693045113777</v>
       </c>
       <c r="T6">
-        <v>0.1525201444546264</v>
+        <v>0.2003693045113777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.875893</v>
       </c>
       <c r="I7">
-        <v>0.4383531842006258</v>
+        <v>0.5522653592108161</v>
       </c>
       <c r="J7">
-        <v>0.4383531842006257</v>
+        <v>0.5522653592108161</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.321449</v>
       </c>
       <c r="O7">
-        <v>0.2447995909660556</v>
+        <v>0.2552648598278156</v>
       </c>
       <c r="P7">
-        <v>0.2447995909660555</v>
+        <v>0.2552648598278155</v>
       </c>
       <c r="Q7">
         <v>0.2754329921063333</v>
@@ -880,10 +880,10 @@
         <v>2.478896928957</v>
       </c>
       <c r="S7">
-        <v>0.1073086801909812</v>
+        <v>0.1409739395067072</v>
       </c>
       <c r="T7">
-        <v>0.1073086801909812</v>
+        <v>0.1409739395067072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2460686666666666</v>
+        <v>0.2460686666666667</v>
       </c>
       <c r="H8">
-        <v>0.7382059999999999</v>
+        <v>0.738206</v>
       </c>
       <c r="I8">
-        <v>0.1725018168392372</v>
+        <v>0.2173288144694712</v>
       </c>
       <c r="J8">
-        <v>0.1725018168392372</v>
+        <v>0.2173288144694712</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7328106666666666</v>
+        <v>0.659041</v>
       </c>
       <c r="N8">
-        <v>2.198432</v>
+        <v>1.977123</v>
       </c>
       <c r="O8">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="P8">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="Q8">
-        <v>0.1803217436657777</v>
+        <v>0.1621693401486667</v>
       </c>
       <c r="R8">
-        <v>1.622895692992</v>
+        <v>1.459524061338</v>
       </c>
       <c r="S8">
-        <v>0.07025334247191696</v>
+        <v>0.08300258648439189</v>
       </c>
       <c r="T8">
-        <v>0.07025334247191695</v>
+        <v>0.08300258648439188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2460686666666666</v>
+        <v>0.2460686666666667</v>
       </c>
       <c r="H9">
-        <v>0.7382059999999999</v>
+        <v>0.738206</v>
       </c>
       <c r="I9">
-        <v>0.1725018168392372</v>
+        <v>0.2173288144694712</v>
       </c>
       <c r="J9">
-        <v>0.1725018168392372</v>
+        <v>0.2173288144694712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.878204</v>
       </c>
       <c r="O9">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="P9">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="Q9">
         <v>0.1540557180026667</v>
@@ -1004,10 +1004,10 @@
         <v>1.386501462024</v>
       </c>
       <c r="S9">
-        <v>0.06002010016417353</v>
+        <v>0.07884981862298442</v>
       </c>
       <c r="T9">
-        <v>0.06002010016417352</v>
+        <v>0.0788498186229844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2460686666666666</v>
+        <v>0.2460686666666667</v>
       </c>
       <c r="H10">
-        <v>0.7382059999999999</v>
+        <v>0.738206</v>
       </c>
       <c r="I10">
-        <v>0.1725018168392372</v>
+        <v>0.2173288144694712</v>
       </c>
       <c r="J10">
-        <v>0.1725018168392372</v>
+        <v>0.2173288144694712</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>1.321449</v>
       </c>
       <c r="O10">
-        <v>0.2447995909660556</v>
+        <v>0.2552648598278156</v>
       </c>
       <c r="P10">
-        <v>0.2447995909660555</v>
+        <v>0.2552648598278155</v>
       </c>
       <c r="Q10">
         <v>0.1083890644993333</v>
       </c>
       <c r="R10">
-        <v>0.9755015804939998</v>
+        <v>0.9755015804939999</v>
       </c>
       <c r="S10">
-        <v>0.04222837420314669</v>
+        <v>0.05547640936209491</v>
       </c>
       <c r="T10">
-        <v>0.04222837420314669</v>
+        <v>0.05547640936209489</v>
       </c>
     </row>
   </sheetData>
